--- a/doc/服务配置.xlsx
+++ b/doc/服务配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11540"/>
+    <workbookView windowWidth="28800" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
-    <t>注：各服务配置价格仅供参考，不代表最终产品价格(https://cloud.tencent.com/)</t>
+    <t>注：各服务配置价格仅供参考，不代表最终产品价格
+官网地址：(https://cloud.tencent.com/)</t>
   </si>
   <si>
     <t>产品</t>
@@ -84,10 +85,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -115,6 +116,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -123,60 +131,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,62 +154,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +176,89 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,61 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,115 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,47 +483,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,159 +534,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1112,163 +1116,163 @@
   <dimension ref="A2:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="13.6"/>
   <cols>
-    <col min="1" max="1" width="17.7053571428571" customWidth="1"/>
-    <col min="2" max="2" width="13.5357142857143" customWidth="1"/>
-    <col min="3" max="3" width="22.9285714285714" customWidth="1"/>
-    <col min="4" max="4" width="20.2321428571429" customWidth="1"/>
-    <col min="5" max="5" width="12.0535714285714" customWidth="1"/>
-    <col min="6" max="6" width="20.2321428571429" customWidth="1"/>
+    <col min="1" max="1" width="17.7083333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.5333333333333" customWidth="1"/>
+    <col min="3" max="3" width="22.925" customWidth="1"/>
+    <col min="4" max="4" width="20.2333333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.05" customWidth="1"/>
+    <col min="6" max="6" width="20.2333333333333" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="15.1416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" ht="73" customHeight="1" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="52" customHeight="1" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="4">
         <v>50</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>3102.54</v>
       </c>
     </row>
     <row r="8" ht="47" customHeight="1" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="52" customHeight="1" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>2290.8</v>
       </c>
     </row>
     <row r="12" ht="49" customHeight="1" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>4000</v>
       </c>
     </row>
